--- a/UsersList.xlsx
+++ b/UsersList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amal Saleh\PycharmProjects\projectA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mahmoud\projectA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C3982-BD91-49EF-A309-9E05C3B18EC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F740A974-6880-4487-A0CD-03A0CA2BD611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11856" yWindow="2592" windowWidth="9204" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -74,14 +74,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -397,15 +397,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -438,7 +438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -446,10 +446,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>6789</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
